--- a/question_answers_output.xlsx
+++ b/question_answers_output.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[5 1 3]</t>
+          <t>[1 4 3]</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[8 7 1]</t>
+          <t>[4 3 2]</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[3 7 2]</t>
+          <t>[3 4 2]</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[8 4 5]</t>
+          <t>[4 1 2]</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 8 4]</t>
+          <t>[4 3 1]</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[8 1 4]</t>
+          <t>[4 1 3]</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 7 5]</t>
+          <t>[3 1 4]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[3 4 8]</t>
+          <t>[4 3 1]</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[9 6 7]</t>
+          <t>[5 2 3]</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[6 3 8]</t>
+          <t>[2 4 1]</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1 4 5]</t>
+          <t>[1 3 4]</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[9 8 7]</t>
+          <t>[5 4 3]</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[5 1 4]</t>
+          <t>[1 3 4]</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[6 9 7]</t>
+          <t>[2 5 3]</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[8 4 3]</t>
+          <t>[4 3 2]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[3 7 8]</t>
+          <t>[3 4 2]</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[2 8 5]</t>
+          <t>[4 1 5]</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[2 5 4]</t>
+          <t>[1 3 4]</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[8 9 7]</t>
+          <t>[4 1 5]</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[7 8 6]</t>
+          <t>[3 4 2]</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[7 9 6]</t>
+          <t>[3 2 5]</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[6 4 3]</t>
+          <t>[2 4 3]</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[5 3 2]</t>
+          <t>[1 3 4]</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[8 1 5]</t>
+          <t>[4 1 5]</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[3 4 7]</t>
+          <t>[3 4 2]</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[9 8 7]</t>
+          <t>[4 5 3]</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[1 7 8]</t>
+          <t>[1 4 3]</t>
         </is>
       </c>
     </row>
